--- a/trend_results/Rivers/TuriteaatNo1Dairy_00ae88177b.xlsx
+++ b/trend_results/Rivers/TuriteaatNo1Dairy_00ae88177b.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.471233793707209</v>
+        <v>0.528766206292791</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.985560099700206</v>
+        <v>0.014439900299794</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.621208275943927</v>
+        <v>0.378791724056073</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.958307328592618</v>
+        <v>0.041692671407382</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/TuriteaatNo1Dairy_00ae88177b.xlsx
+++ b/trend_results/Rivers/TuriteaatNo1Dairy_00ae88177b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.188792800940099</v>
+        <v>0.028445769407467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0607241097878</v>
+        <v>-0.176753975837827</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.260020717921431</v>
+        <v>-0.380569607804811</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0315402118324539</v>
+        <v>-0.0083340938971615</v>
       </c>
       <c r="N2" t="n">
-        <v>-16.8678082743889</v>
+        <v>-50.5011359536648</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.528766206292791</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.898305084745763</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.65</v>
+        <v>9.57</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0125309230243438</v>
+        <v>-0.06355082417582431</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0505684728874561</v>
+        <v>-0.14552274917124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.155894538644071</v>
+        <v>0.0263295281790429</v>
       </c>
       <c r="N3" t="n">
-        <v>0.129854124604599</v>
+        <v>-0.664062948545708</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.905945258195471</v>
+        <v>0.641599741502753</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.491525423728814</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0010870535714285</v>
+        <v>-0.0004157083987441</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0030248447204968</v>
+        <v>-0.0019941841765774</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0002358104022266</v>
+        <v>0.0009887199208334001</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.43526785714286</v>
+        <v>-2.44534352202419</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.695159012786058</v>
+        <v>0.7196878209904189</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H5" t="n">
-        <v>0.779661016949153</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>590</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.68538448579722</v>
+        <v>-18.1382653061224</v>
       </c>
       <c r="L5" t="n">
-        <v>-77.4610229313886</v>
+        <v>-76.9071677927662</v>
       </c>
       <c r="M5" t="n">
-        <v>33.1016531786946</v>
+        <v>23.2528927636881</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.47209906538936</v>
+        <v>-4.03072562358277</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.99762020221718</v>
+        <v>0.427986864997659</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773584905660377</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="H6" t="n">
-        <v>0.245283018867925</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.908414985532867</v>
+        <v>0.998836719552069</v>
       </c>
       <c r="G7" t="n">
-        <v>0.23728813559322</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="H7" t="n">
-        <v>0.152542372881356</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0006286574870912</v>
+        <v>-0.0006324675324675001</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-16.6173794358508</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.281341927597306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H8" t="n">
-        <v>0.966101694915254</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.112</v>
+        <v>0.098</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0004899066230265</v>
+        <v>0.0036644119128431</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0131858566109216</v>
+        <v>-0.0048132444295524</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0076810757414097</v>
+        <v>0.008521218350811899</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.437416627702294</v>
+        <v>3.73919582943176</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.014439900299794</v>
+        <v>0.021614318658096</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.55</v>
+        <v>7.52</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0552478991596638</v>
+        <v>-0.0463809523809524</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.100005826781622</v>
+        <v>-0.0858668844415104</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0168317972350228</v>
+        <v>-0.009607888723450199</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.731760253770381</v>
+        <v>-0.616767983789261</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.557532021062113</v>
+        <v>0.234663468277801</v>
       </c>
       <c r="G10" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.88135593220339</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0014101033406993</v>
+        <v>0.0038656102825745</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0187966574494495</v>
+        <v>-0.007682611098097</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0078548387096774</v>
+        <v>0.0116671109443606</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.08469487746103</v>
+        <v>3.36140024571702</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.618751120488387</v>
+        <v>0.471083053005379</v>
       </c>
       <c r="G11" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.389830508474576</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.001661737943585</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.781086323683249</v>
+        <v>-0.0158670652409307</v>
       </c>
       <c r="M11" t="n">
-        <v>0.585337430032322</v>
+        <v>0.0158670652409307</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.553912647861693</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7875716823601751</v>
+        <v>0.557833492070026</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.32</v>
+        <v>0.041</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0173707689715944</v>
+        <v>-0.000167239010989</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0399677046366586</v>
+        <v>-0.002662361123844</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.0018212126987208</v>
       </c>
       <c r="N12" t="n">
-        <v>-5.42836530362326</v>
+        <v>-0.407900026802466</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.774133585085874</v>
+        <v>0.585434771435927</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.044</v>
+        <v>3.12</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0011995073891625</v>
+        <v>-0.0318460764587525</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0043763592650505</v>
+        <v>-0.336674983571384</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0015555444973251</v>
+        <v>0.30517690663558</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.72615315718764</v>
+        <v>-1.02070757880617</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.00858061729647e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0704225352112676</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.816901408450704</v>
+      </c>
+      <c r="I14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.523466854122246</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.9830508474576271</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>3.46</v>
+        <v>1.2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0159916812609457</v>
+        <v>-0.189346062524733</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.351187296760426</v>
+        <v>-0.250255292496299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.485491064583093</v>
+        <v>-0.118031573338793</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.462187319680512</v>
+        <v>-15.7788385437277</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9.850252468401879e-05</v>
+        <v>0.237769081701262</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0735294117647059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.823529411764706</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.285</v>
+        <v>9.77</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.19656553301949</v>
+        <v>-0.0137312030075187</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.268708954418183</v>
+        <v>-0.0569296507237049</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.115382941149828</v>
+        <v>0.0248318158638139</v>
       </c>
       <c r="N15" t="n">
-        <v>-15.2969286396491</v>
+        <v>-0.140544554836425</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1839,35 +1839,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.378791724056073</v>
+        <v>0.594470384321456</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8490566037735851</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>9.789999999999999</v>
+        <v>0.0175</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.009305820036127999</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0501480908466634</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0397978778975474</v>
+        <v>0.0003330280551166</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0950543415334837</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.298869327067152</v>
+        <v>0.997051429181639</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0094339622641509</v>
+        <v>0.0427350427350427</v>
       </c>
       <c r="H17" t="n">
-        <v>0.339622641509434</v>
+        <v>0.752136752136752</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.018</v>
+        <v>566</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001667047010497</v>
+        <v>-40.9121471890496</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0003990681012077</v>
+        <v>-81.1391437427242</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0008164944073791</v>
+        <v>-17.6559121035284</v>
       </c>
       <c r="N17" t="n">
-        <v>0.92613722805416</v>
+        <v>-7.22829455636919</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.394912835600232</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.830357142857143</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.178571428571429</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.960112857800033</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0476190476190476</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.7333333333333329</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-34.5857963875205</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-78.0676906686366</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.530377409399583</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-5.76429939792009</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.529056942767239</v>
+        <v>0.975626925163001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.84</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0002312382396697</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.679189258556414</v>
+        <v>0.0324721567975138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.254716981132075</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H20" t="n">
-        <v>0.122641509433962</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.096</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0020606369960952</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.004327368922595</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.14649687093256</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0039710388186108</v>
+        <v>0.010960233509961</v>
       </c>
       <c r="G21" t="n">
-        <v>0.122641509433962</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.811320754716981</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09945</v>
+        <v>7.55</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0038072881066302</v>
+        <v>-0.0175095877277085</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0012329037718882</v>
+        <v>-0.0304356995694725</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0070731419544965</v>
+        <v>-0.0051411990687819</v>
       </c>
       <c r="N21" t="n">
-        <v>3.82834399862264</v>
+        <v>-0.231915069241172</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_11b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.041692671407382</v>
+        <v>0.0299522233405515</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="H22" t="n">
-        <v>0.613207547169811</v>
+        <v>0.822033898305085</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>7.56</v>
+        <v>0.1062</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0165646258503402</v>
+        <v>0.0031712328569115</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0323070074519073</v>
+        <v>0.0002780142549967</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0062090615493796</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.219108807544182</v>
+        <v>2.9860949688433</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_11b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0035267956913108</v>
+        <v>0.6545346259038169</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0471698113207547</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.745283018867924</v>
+        <v>0.584745762711864</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.109</v>
+        <v>0.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0050051675298385</v>
+        <v>-0.0012106127448829</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0021895311600717</v>
+        <v>-0.0070098163371768</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009122590847511301</v>
+        <v>0.0033474679967604</v>
       </c>
       <c r="N23" t="n">
-        <v>4.59189681636567</v>
+        <v>-0.403537581627637</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.313594644725423</v>
+        <v>0.692693255927044</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0660377358490566</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.264150943396226</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>0.042</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0002073215910568</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0810107368555012</v>
+        <v>-0.0008007646292411</v>
       </c>
       <c r="M24" t="n">
-        <v>0.304145022015059</v>
+        <v>0.0004970220809077</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-0.493622835849536</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.438452224066383</v>
+        <v>0.468427959445891</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.641509433962264</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.305</v>
+        <v>2.81</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0087202055463333</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0066390798669731</v>
+        <v>-0.0863838242221549</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.106598102514813</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.310327599513643</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.332377241276378</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.490566037735849</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0425</v>
+        <v>0.241</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002665172009519</v>
+        <v>0.0160717646962609</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0005010264603625</v>
+        <v>-0.129290316287295</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0009995894909688001</v>
+        <v>0.0754494839459727</v>
       </c>
       <c r="N26" t="n">
-        <v>0.627099296357446</v>
+        <v>6.66878203164354</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2811,11 +2811,7 @@
           <t>Mana_11b</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2825,11 +2821,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2840,31 +2836,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.126334688465635</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.933962264150943</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.99</v>
+        <v>92</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09961363636363629</v>
+        <v>1.81676298701299</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.039207493578114</v>
+        <v>-12.3930803182725</v>
       </c>
       <c r="M27" t="n">
-        <v>0.267241624692325</v>
+        <v>11.2364554445</v>
       </c>
       <c r="N27" t="n">
-        <v>3.33155974460322</v>
+        <v>1.97474237718803</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2869,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,11 +2898,7 @@
           <t>Mana_11b</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2916,7 +2908,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,7 +2923,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.768783636774762</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2943,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.347</v>
+        <v>4.35</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0344697934532183</v>
+        <v>-0.003016255922555</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1254632769345</v>
+        <v>-0.481722881310255</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0754494839459727</v>
+        <v>0.332894358426642</v>
       </c>
       <c r="N28" t="n">
-        <v>9.933658055682489</v>
+        <v>-0.0693392166104605</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2956,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3003,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,7 +3010,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.768783636774762</v>
+        <v>0.036819135060151</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3030,19 +3022,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>94.40000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="K29" t="n">
-        <v>3.96319967532467</v>
+        <v>-0.0295317853922453</v>
       </c>
       <c r="L29" t="n">
-        <v>-12.8978754375442</v>
+        <v>-0.0527256932786297</v>
       </c>
       <c r="M29" t="n">
-        <v>11.2364554445</v>
+        <v>-0.0032573256613067</v>
       </c>
       <c r="N29" t="n">
-        <v>4.19830474081004</v>
+        <v>-7.79202780798028</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3090,11 +3082,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,7 +3097,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3117,19 +3109,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.58</v>
+        <v>99.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0765684035822491</v>
+        <v>-2.25462962962963</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.352253348051043</v>
+        <v>-4.93255826823977</v>
       </c>
       <c r="M30" t="n">
-        <v>0.332894358426642</v>
+        <v>0.0634895034485005</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6717992048526</v>
+        <v>-2.26595942676345</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3130,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3169,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,7 +3184,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.125726093254011</v>
+        <v>0.024548990804633</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3204,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.408</v>
+        <v>4.76</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0288401770519338</v>
+        <v>-0.213445843828715</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0531194399258905</v>
+        <v>-0.317921278340443</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0074996148866357</v>
+        <v>-0.07701050251152521</v>
       </c>
       <c r="N31" t="n">
-        <v>-7.0686708460622</v>
+        <v>-4.48415638295619</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3217,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3255,180 +3247,6 @@
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Turitea at No1 Dairy</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.174041311816462</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>101</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-1.63137102868478</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-4.98622082980088</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.15888949638263</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-1.61521884028196</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>1821276.44</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5526193.49</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Mana_11b</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Turitea at No1 Dairy</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0.058925447510683</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-0.220448490096176</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-0.319254793990716</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-0.0224367492940472</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.59267687700366</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>1821276.44</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5526193.49</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Mana_11b</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TuriteaatNo1Dairy_00ae88177b.xlsx
+++ b/trend_results/Rivers/TuriteaatNo1Dairy_00ae88177b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="64">
   <si>
     <t>site name</t>
   </si>
@@ -88,42 +88,42 @@
     <t>Turitea at No1 Dairy</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -136,45 +136,48 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
@@ -190,19 +193,19 @@
     <t>Mana_11b</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,44 +651,44 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.028445769407467</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.904761904761905</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.35</v>
+        <v>9.48</v>
       </c>
       <c r="K2">
-        <v>-0.176753975837827</v>
+        <v>-0.07551650567174779</v>
       </c>
       <c r="L2">
-        <v>-0.380569607804811</v>
+        <v>-0.172047251226014</v>
       </c>
       <c r="M2">
-        <v>-0.0083340938971615</v>
+        <v>0.0261106427271638</v>
       </c>
       <c r="N2">
-        <v>-50.5011359536648</v>
+        <v>-0.796587612571179</v>
       </c>
       <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q2">
         <v>1821276.44</v>
       </c>
@@ -693,19 +696,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,43 +722,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.109935855314351</v>
+        <v>0.162966575637461</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.915254237288136</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.57</v>
+        <v>0.017</v>
       </c>
       <c r="K3">
-        <v>-0.06355082417582431</v>
+        <v>0.0007507708119218</v>
       </c>
       <c r="L3">
-        <v>-0.14552274917124</v>
+        <v>-0.0005029416362433</v>
       </c>
       <c r="M3">
-        <v>0.0263295281790429</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="N3">
-        <v>-0.664062948545708</v>
+        <v>4.41629889365818</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1821276.44</v>
@@ -764,19 +767,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,40 +796,40 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.641599741502753</v>
+        <v>0.667908339253463</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H4">
-        <v>0.474576271186441</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.017</v>
+        <v>405.6</v>
       </c>
       <c r="K4">
-        <v>-0.0004157083987441</v>
+        <v>-23.2796703296703</v>
       </c>
       <c r="L4">
-        <v>-0.0019941841765774</v>
+        <v>-93.2693093227119</v>
       </c>
       <c r="M4">
-        <v>0.0009887199208334001</v>
+        <v>38.1248260948929</v>
       </c>
       <c r="N4">
-        <v>-2.44534352202419</v>
+        <v>-5.73956369074712</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1821276.44</v>
@@ -835,19 +838,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,43 +864,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.7196878209904189</v>
+        <v>0.452745290319857</v>
       </c>
       <c r="G5">
-        <v>0.0338983050847458</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="H5">
-        <v>0.88135593220339</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>450</v>
+        <v>0.005</v>
       </c>
       <c r="K5">
-        <v>-18.1382653061224</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-76.9071677927662</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>23.2528927636881</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.03072562358277</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1821276.44</v>
@@ -906,19 +909,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,34 +941,34 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.427986864997659</v>
+        <v>0.999976985462108</v>
       </c>
       <c r="G6">
-        <v>0.836363636363636</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="H6">
-        <v>0.181818181818182</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.000431227863046</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0.0007051158301158</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-21.5613931523022</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
         <v>46</v>
@@ -977,16 +980,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
         <v>60</v>
@@ -1003,43 +1006,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>0.998836719552069</v>
+        <v>0.904784868087238</v>
       </c>
       <c r="G7">
-        <v>0.322033898305085</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H7">
-        <v>0.135593220338983</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002</v>
+        <v>0.092</v>
       </c>
       <c r="K7">
-        <v>-0.000332347588717</v>
+        <v>-0.0057697458791208</v>
       </c>
       <c r="L7">
-        <v>-0.0006324675324675001</v>
+        <v>-0.0201157706075644</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0003075519180177</v>
       </c>
       <c r="N7">
-        <v>-16.6173794358508</v>
+        <v>-6.27146291208791</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1821276.44</v>
@@ -1048,16 +1051,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
         <v>60</v>
@@ -1074,43 +1077,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.281341927597306</v>
+        <v>0.235882468769832</v>
       </c>
       <c r="G8">
-        <v>0.0508474576271186</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.898305084745763</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.098</v>
+        <v>7.45</v>
       </c>
       <c r="K8">
-        <v>0.0036644119128431</v>
+        <v>-0.0163058035714287</v>
       </c>
       <c r="L8">
-        <v>-0.0048132444295524</v>
+        <v>-0.0514683244958669</v>
       </c>
       <c r="M8">
-        <v>0.008521218350811899</v>
+        <v>0.019644595962131</v>
       </c>
       <c r="N8">
-        <v>3.73919582943176</v>
+        <v>-0.218869846596358</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1821276.44</v>
@@ -1119,19 +1122,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,43 +1145,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.021614318658096</v>
+        <v>0.87651071136037</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H9">
-        <v>0.745762711864407</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>7.52</v>
+        <v>0.106</v>
       </c>
       <c r="K9">
-        <v>-0.0463809523809524</v>
+        <v>-0.008579129422469601</v>
       </c>
       <c r="L9">
-        <v>-0.0858668844415104</v>
+        <v>-0.017743874851658</v>
       </c>
       <c r="M9">
-        <v>-0.009607888723450199</v>
+        <v>0.0019987660690067</v>
       </c>
       <c r="N9">
-        <v>-0.616767983789261</v>
+        <v>-8.093518323084551</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1821276.44</v>
@@ -1190,16 +1190,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,34 +1222,34 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.234663468277801</v>
+        <v>0.743098853096518</v>
       </c>
       <c r="G10">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.949152542372881</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.115</v>
+        <v>0.3</v>
       </c>
       <c r="K10">
-        <v>0.0038656102825745</v>
+        <v>-0.008361950549450501</v>
       </c>
       <c r="L10">
-        <v>-0.007682611098097</v>
+        <v>-0.0200049580983212</v>
       </c>
       <c r="M10">
-        <v>0.0116671109443606</v>
+        <v>0.0100343406593406</v>
       </c>
       <c r="N10">
-        <v>3.36140024571702</v>
+        <v>-2.78731684981685</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
         <v>49</v>
@@ -1258,16 +1261,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
         <v>59</v>
@@ -1284,43 +1287,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.471083053005379</v>
+        <v>0.640537184214654</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.627118644067797</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3</v>
+        <v>0.041</v>
       </c>
       <c r="K11">
-        <v>0.001661737943585</v>
+        <v>-0.0004141156462585</v>
       </c>
       <c r="L11">
-        <v>-0.0158670652409307</v>
+        <v>-0.0027462406015037</v>
       </c>
       <c r="M11">
-        <v>0.0158670652409307</v>
+        <v>0.0019544215339965</v>
       </c>
       <c r="N11">
-        <v>0.553912647861693</v>
+        <v>-1.01003816160611</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1821276.44</v>
@@ -1329,16 +1332,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W11" t="s">
         <v>59</v>
@@ -1361,34 +1364,34 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.557833492070026</v>
+        <v>0.991380489720704</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.627118644067797</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.041</v>
+        <v>2.74</v>
       </c>
       <c r="K12">
-        <v>-0.000167239010989</v>
+        <v>-0.382534961006735</v>
       </c>
       <c r="L12">
-        <v>-0.002662361123844</v>
+        <v>-0.538440716450457</v>
       </c>
       <c r="M12">
-        <v>0.0018212126987208</v>
+        <v>-0.0799014861118565</v>
       </c>
       <c r="N12">
-        <v>-0.407900026802466</v>
+        <v>-13.9611299637495</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
         <v>46</v>
@@ -1400,19 +1403,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1423,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1432,37 +1435,37 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.585434771435927</v>
+        <v>4.29108531080358E-05</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.8412698412698409</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>3.12</v>
+        <v>0.9</v>
       </c>
       <c r="K13">
-        <v>-0.0318460764587525</v>
+        <v>-0.172934693877551</v>
       </c>
       <c r="L13">
-        <v>-0.336674983571384</v>
+        <v>-0.238729563742197</v>
       </c>
       <c r="M13">
-        <v>0.30517690663558</v>
+        <v>-0.0924191988436284</v>
       </c>
       <c r="N13">
-        <v>-1.02070757880617</v>
+        <v>-19.2149659863946</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1821276.44</v>
@@ -1471,19 +1474,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,40 +1500,40 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
       </c>
       <c r="F14">
-        <v>2.00858061729647E-05</v>
+        <v>0.044532413501231</v>
       </c>
       <c r="G14">
-        <v>0.0704225352112676</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.816901408450704</v>
+        <v>0.848739495798319</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.2</v>
+        <v>9.77</v>
       </c>
       <c r="K14">
-        <v>-0.189346062524733</v>
+        <v>-0.0368263061411547</v>
       </c>
       <c r="L14">
-        <v>-0.250255292496299</v>
+        <v>-0.07344202867241061</v>
       </c>
       <c r="M14">
-        <v>-0.118031573338793</v>
+        <v>-0.0001732716156798</v>
       </c>
       <c r="N14">
-        <v>-15.7788385437277</v>
+        <v>-0.376932509121338</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
         <v>51</v>
@@ -1542,19 +1545,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,37 +1574,37 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.237769081701262</v>
+        <v>0.66308847164159</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H15">
-        <v>0.830508474576271</v>
+        <v>0.310924369747899</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>9.77</v>
+        <v>0.017</v>
       </c>
       <c r="K15">
-        <v>-0.0137312030075187</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.0569296507237049</v>
+        <v>-0.0004987530501051</v>
       </c>
       <c r="M15">
-        <v>0.0248318158638139</v>
+        <v>0.0002767236443928</v>
       </c>
       <c r="N15">
-        <v>-0.140544554836425</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
         <v>45</v>
@@ -1613,19 +1616,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,40 +1645,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.594470384321456</v>
+        <v>0.982734664405327</v>
       </c>
       <c r="G16">
-        <v>0.008474576271186401</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H16">
-        <v>0.305084745762712</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>0.0175</v>
+        <v>484.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-25.1483606557377</v>
       </c>
       <c r="L16">
-        <v>-0.0004969387755102</v>
+        <v>-58.3090362195744</v>
       </c>
       <c r="M16">
-        <v>0.0003330280551166</v>
+        <v>-8.742796302722819</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-5.19058011470335</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1821276.44</v>
@@ -1684,19 +1687,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,43 +1713,43 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.997051429181639</v>
+        <v>0.62536411848767</v>
       </c>
       <c r="G17">
-        <v>0.0427350427350427</v>
+        <v>0.823008849557522</v>
       </c>
       <c r="H17">
-        <v>0.752136752136752</v>
+        <v>0.185840707964602</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>566</v>
+        <v>0.005</v>
       </c>
       <c r="K17">
-        <v>-40.9121471890496</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-81.1391437427242</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>-17.6559121035284</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-7.22829455636919</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1821276.44</v>
@@ -1755,19 +1758,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,25 +1790,25 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.394912835600232</v>
+        <v>0.998961704895055</v>
       </c>
       <c r="G18">
-        <v>0.830357142857143</v>
+        <v>0.378151260504202</v>
       </c>
       <c r="H18">
-        <v>0.178571428571429</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0002931380417335</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1814,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
         <v>46</v>
@@ -1826,16 +1829,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
         <v>60</v>
@@ -1852,43 +1855,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>0.975626925163001</v>
+        <v>0.346753407684957</v>
       </c>
       <c r="G19">
-        <v>0.305084745762712</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="H19">
-        <v>0.110169491525424</v>
+        <v>0.781512605042017</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.003</v>
+        <v>0.094</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="L19">
-        <v>-0.0002312382396697</v>
+        <v>-0.0021103997160134</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0027707010652599</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.638035845299235</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1821276.44</v>
@@ -1897,16 +1900,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W19" t="s">
         <v>60</v>
@@ -1923,43 +1926,43 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20">
-        <v>0.0324721567975138</v>
+        <v>0.003020854281085</v>
       </c>
       <c r="G20">
-        <v>0.11864406779661</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.788135593220339</v>
+        <v>0.5630252100840339</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.096</v>
+        <v>7.54</v>
       </c>
       <c r="K20">
-        <v>0.0020606369960952</v>
+        <v>-0.021153474903475</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0337655936813101</v>
       </c>
       <c r="M20">
-        <v>0.004327368922595</v>
+        <v>-0.008589065255731901</v>
       </c>
       <c r="N20">
-        <v>2.14649687093256</v>
+        <v>-0.280550065032824</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1821276.44</v>
@@ -1968,19 +1971,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,43 +1994,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.010960233509961</v>
+        <v>0.264895881373694</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0420168067226891</v>
       </c>
       <c r="H21">
-        <v>0.567796610169492</v>
+        <v>0.781512605042017</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>7.55</v>
+        <v>0.106</v>
       </c>
       <c r="K21">
-        <v>-0.0175095877277085</v>
+        <v>0.0012482911825017</v>
       </c>
       <c r="L21">
-        <v>-0.0304356995694725</v>
+        <v>-0.002166612116811</v>
       </c>
       <c r="M21">
-        <v>-0.0051411990687819</v>
+        <v>0.0036629040847038</v>
       </c>
       <c r="N21">
-        <v>-0.231915069241172</v>
+        <v>1.17763319103935</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q21">
         <v>1821276.44</v>
@@ -2039,16 +2039,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="W21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,37 +2071,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.0299522233405515</v>
+        <v>0.891186782443619</v>
       </c>
       <c r="G22">
-        <v>0.0423728813559322</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.822033898305085</v>
+        <v>0.495798319327731</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1062</v>
+        <v>0.3</v>
       </c>
       <c r="K22">
-        <v>0.0031712328569115</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L22">
-        <v>0.0002780142549967</v>
+        <v>-0.009938113477905</v>
       </c>
       <c r="M22">
-        <v>0.0062090615493796</v>
+        <v>0.0005116234983542</v>
       </c>
       <c r="N22">
-        <v>2.9860949688433</v>
+        <v>-1.6643882433356</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1821276.44</v>
@@ -2107,16 +2110,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
         <v>59</v>
@@ -2139,37 +2142,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.6545346259038169</v>
+        <v>0.613433153268516</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.584745762711864</v>
+        <v>0.46218487394958</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3</v>
+        <v>0.041</v>
       </c>
       <c r="K23">
-        <v>-0.0012106127448829</v>
+        <v>-0.0001248291182501</v>
       </c>
       <c r="L23">
-        <v>-0.0070098163371768</v>
+        <v>-0.0006604882459312</v>
       </c>
       <c r="M23">
-        <v>0.0033474679967604</v>
+        <v>0.000563534292994</v>
       </c>
       <c r="N23">
-        <v>-0.403537581627637</v>
+        <v>-0.304461264024806</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1821276.44</v>
@@ -2178,16 +2181,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W23" t="s">
         <v>59</v>
@@ -2210,37 +2213,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.692693255927044</v>
+        <v>0.798275633080725</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.474576271186441</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.042</v>
+        <v>2.63</v>
       </c>
       <c r="K24">
-        <v>-0.0002073215910568</v>
+        <v>-0.0334478021978022</v>
       </c>
       <c r="L24">
-        <v>-0.0008007646292411</v>
+        <v>-0.120412729932546</v>
       </c>
       <c r="M24">
-        <v>0.0004970220809077</v>
+        <v>0.0524284721154274</v>
       </c>
       <c r="N24">
-        <v>-0.493622835849536</v>
+        <v>-1.27177955124723</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1821276.44</v>
@@ -2249,19 +2252,19 @@
         <v>5526193.49</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,49 +2272,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.468427959445891</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.923728813559322</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.81</v>
+        <v>0.341</v>
       </c>
       <c r="K25">
-        <v>0.0087202055463333</v>
+        <v>-0.009495185033848301</v>
       </c>
       <c r="L25">
-        <v>-0.0863838242221549</v>
+        <v>-0.129290316287295</v>
       </c>
       <c r="M25">
-        <v>0.106598102514813</v>
+        <v>0.0932783537634559</v>
       </c>
       <c r="N25">
-        <v>0.310327599513643</v>
+        <v>-2.78451174013147</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q25">
         <v>1821276.44</v>
@@ -2320,19 +2323,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,7 +2340,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2364,25 +2364,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.241</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>0.0160717646962609</v>
+        <v>0.638091412742383</v>
       </c>
       <c r="L26">
-        <v>-0.129290316287295</v>
+        <v>-12.3930803182725</v>
       </c>
       <c r="M26">
-        <v>0.0754494839459727</v>
+        <v>7.97084750732873</v>
       </c>
       <c r="N26">
-        <v>6.66878203164354</v>
+        <v>0.65111368647182</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1821276.44</v>
@@ -2391,16 +2391,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2408,7 +2408,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2420,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.59675202974633</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2432,25 +2432,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>92</v>
+        <v>4.72</v>
       </c>
       <c r="K27">
-        <v>1.81676298701299</v>
+        <v>0.150324743330646</v>
       </c>
       <c r="L27">
-        <v>-12.3930803182725</v>
+        <v>-0.481722881310255</v>
       </c>
       <c r="M27">
-        <v>11.2364554445</v>
+        <v>0.563633833195924</v>
       </c>
       <c r="N27">
-        <v>1.97474237718803</v>
+        <v>3.18484625700521</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1821276.44</v>
@@ -2459,16 +2459,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2476,10 +2476,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.053702318165127</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2500,25 +2500,25 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4.35</v>
+        <v>0.3485</v>
       </c>
       <c r="K28">
-        <v>-0.003016255922555</v>
+        <v>-0.0293161184210526</v>
       </c>
       <c r="L28">
-        <v>-0.481722881310255</v>
+        <v>-0.0505962307338763</v>
       </c>
       <c r="M28">
-        <v>0.332894358426642</v>
+        <v>-0.0012835069207896</v>
       </c>
       <c r="N28">
-        <v>-0.0693392166104605</v>
+        <v>-8.412085630144229</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q28">
         <v>1821276.44</v>
@@ -2527,16 +2527,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2544,7 +2544,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -2556,7 +2556,7 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.036819135060151</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.379</v>
+        <v>99.5</v>
       </c>
       <c r="K29">
-        <v>-0.0295317853922453</v>
+        <v>-1.25587392550144</v>
       </c>
       <c r="L29">
-        <v>-0.0527256932786297</v>
+        <v>-3.313752942701</v>
       </c>
       <c r="M29">
-        <v>-0.0032573256613067</v>
+        <v>1.49144182288765</v>
       </c>
       <c r="N29">
-        <v>-7.79202780798028</v>
+        <v>-1.26218484975019</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
         <v>44</v>
@@ -2595,16 +2595,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2612,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -2624,7 +2624,7 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>0.07620314197837499</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>99.5</v>
+        <v>4.76</v>
       </c>
       <c r="K30">
-        <v>-2.25462962962963</v>
+        <v>-0.147746573256168</v>
       </c>
       <c r="L30">
-        <v>-4.93255826823977</v>
+        <v>-0.288511454316466</v>
       </c>
       <c r="M30">
-        <v>0.0634895034485005</v>
+        <v>0.0331202929165391</v>
       </c>
       <c r="N30">
-        <v>-2.26595942676345</v>
+        <v>-3.10391960622202</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1821276.44</v>
@@ -2663,84 +2663,16 @@
         <v>5526193.49</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31">
-        <v>0.024548990804633</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>4.76</v>
-      </c>
-      <c r="K31">
-        <v>-0.213445843828715</v>
-      </c>
-      <c r="L31">
-        <v>-0.317921278340443</v>
-      </c>
-      <c r="M31">
-        <v>-0.07701050251152521</v>
-      </c>
-      <c r="N31">
-        <v>-4.48415638295619</v>
-      </c>
-      <c r="O31" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31">
-        <v>1821276.44</v>
-      </c>
-      <c r="R31">
-        <v>5526193.49</v>
-      </c>
-      <c r="S31" t="s">
-        <v>54</v>
-      </c>
-      <c r="T31" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" t="s">
-        <v>56</v>
-      </c>
-      <c r="V31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
